--- a/01_projects/09_moanetunnelen/extracted/p09_results_wide.xlsx
+++ b/01_projects/09_moanetunnelen/extracted/p09_results_wide.xlsx
@@ -441,7 +441,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
@@ -508,7 +508,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Acenaphthene</t>
+          <t>Acenaften</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -560,7 +560,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Acenaphthylene</t>
+          <t>Acenaftylen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Anthracene</t>
+          <t>Antracen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -768,12 +768,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BaA</t>
+          <t>BaP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Benzo(a)antracen</t>
+          <t>Benzo(a)pyren</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -820,32 +820,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BaP</t>
+          <t>Benzen</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Benzo(a)pyren</t>
+          <t>Benzen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>&lt;0.0050</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>&lt;0.0050</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>&lt;0.0050</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>&lt;0.0050</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -872,12 +872,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BbF</t>
+          <t>Benzo(a)antracen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Benzo(b)fluoranten</t>
+          <t>Benzo(a)antracen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -900,75 +900,75 @@
           <t>&lt;0.010</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v/>
-      </c>
-      <c r="H9" t="n">
-        <v/>
-      </c>
-      <c r="I9" t="n">
-        <v/>
-      </c>
-      <c r="J9" t="n">
-        <v/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;0.010</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>&lt;0.010</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>&lt;0.010</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>&lt;0.010</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Benzene</t>
+          <t>Benzo(b)fluoranten</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Benzen</t>
+          <t>Benzo(b)fluoranten</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt;0.0050</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;0.0050</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>&lt;0.0050</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;0.0050</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>&lt;0.010</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>&lt;0.010</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>&lt;0.010</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>&lt;0.010</t>
-        </is>
+          <t>&lt;0.010</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="I10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BghiP</t>
+          <t>Benzo(ghi)perylen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1020,7 +1020,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BkF</t>
+          <t>Benzo(k)fluoranten</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2356,355 +2356,355 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Chrysene</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Krysen</t>
+          <t>Krom</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>15.9</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Cr_VI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Krom</t>
+          <t>Cr6+</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>15.9</t>
+          <t>0.272</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>0.080</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>12.2</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v/>
+      </c>
+      <c r="H43" t="n">
+        <v/>
+      </c>
+      <c r="I43" t="n">
+        <v/>
+      </c>
+      <c r="J43" t="n">
+        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cr_VI</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cr6+</t>
+          <t>Kopper</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.272</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>401</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.080</t>
+          <t>113</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.085</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v/>
-      </c>
-      <c r="H44" t="n">
-        <v/>
-      </c>
-      <c r="I44" t="n">
-        <v/>
-      </c>
-      <c r="J44" t="n">
-        <v/>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Dibenzo(a,h)antracen</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Kopper</t>
+          <t>Dibenzo(a,h)antracen</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DahA</t>
+          <t>DryMatter</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Dibenzo(ah)antracen</t>
+          <t>Tørrstoff</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>81.1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>&lt;0.010</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>&lt;0.010</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>&lt;0.010</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>&lt;0.010</t>
-        </is>
+          <t>71.8</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v/>
+      </c>
+      <c r="H46" t="n">
+        <v/>
+      </c>
+      <c r="I46" t="n">
+        <v/>
+      </c>
+      <c r="J46" t="n">
+        <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DryMatter</t>
+          <t>Etylbenzen</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tørrstoff</t>
+          <t>Etylbenzen</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>&lt;0.020</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>81.1</t>
+          <t>&lt;0.020</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>&lt;0.020</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>71.8</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v/>
-      </c>
-      <c r="H47" t="n">
-        <v/>
-      </c>
-      <c r="I47" t="n">
-        <v/>
-      </c>
-      <c r="J47" t="n">
-        <v/>
+          <t>&lt;0.020</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>&lt;0.040</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>&lt;0.040</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>&lt;0.040</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>&lt;0.040</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ethylbenzene</t>
+          <t>Fenantren</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Etylbensen</t>
+          <t>Fenantren</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>&lt;0.020</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>&lt;0.020</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>&lt;0.020</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;0.020</t>
+          <t>0.014</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>&lt;0.040</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>&lt;0.040</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>&lt;0.040</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>&lt;0.040</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fluoranthene</t>
+          <t>Fluoranten</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2756,7 +2756,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Fluorene</t>
+          <t>Fluoren</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2860,12 +2860,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>IcdP</t>
+          <t>Indeno(1,2,3-cd)pyren</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Indeno(123cd)pyren</t>
+          <t>Indeno(1,2,3-cd)pyren</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2904,12 +2904,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Naphthalene</t>
+          <t>Krysen</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Naftalen</t>
+          <t>Krysen</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.010</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2956,168 +2956,168 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Naftalen</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Nikkel</t>
+          <t>Naftalen</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PAH16</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sum PAH-16</t>
+          <t>Nikkel</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>&lt;0</t>
+          <t>12.4</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>&lt;0</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>&lt;0</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>&lt;0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.010</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.010</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.029</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PCB101</t>
+          <t>PAH16</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PCB 101</t>
+          <t>Sum PAH-16</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>&lt;0.0030</t>
+          <t>&lt;0</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>&lt;0.0030</t>
+          <t>&lt;0</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>&lt;0.0030</t>
+          <t>&lt;0</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;0.0030</t>
+          <t>0.027</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>&lt;0.0010</t>
+          <t>&lt;0</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>&lt;0.0010</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>&lt;0.0010</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>&lt;0.0010</t>
+          <t>0.029</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PCB118</t>
+          <t>PCB101</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PCB 118</t>
+          <t>PCB 101</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3164,12 +3164,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PCB138</t>
+          <t>PCB118</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PCB 138</t>
+          <t>PCB 118</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3216,12 +3216,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PCB153</t>
+          <t>PCB138</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PCB 153</t>
+          <t>PCB 138</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3268,12 +3268,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PCB180</t>
+          <t>PCB153</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PCB 180</t>
+          <t>PCB 153</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3320,12 +3320,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PCB28</t>
+          <t>PCB180</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PCB 28</t>
+          <t>PCB 180</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3372,12 +3372,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PCB52</t>
+          <t>PCB28</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PCB 52</t>
+          <t>PCB 28</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3424,128 +3424,136 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PCB7</t>
+          <t>PCB52</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sum PCB-7</t>
+          <t>PCB 52</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>&lt;0</t>
+          <t>&lt;0.0030</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>&lt;0</t>
+          <t>&lt;0.0030</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>&lt;0</t>
+          <t>&lt;0.0030</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;0</t>
+          <t>&lt;0.0030</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>&lt;0</t>
+          <t>&lt;0.0010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>&lt;0</t>
+          <t>&lt;0.0010</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>&lt;0</t>
+          <t>&lt;0.0010</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>&lt;0</t>
+          <t>&lt;0.0010</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PEST_Lindane</t>
+          <t>PCB7</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>g-HCH (Lindan)</t>
+          <t>Sum PCB-7</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>&lt;0.0010</t>
+          <t>&lt;0</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>&lt;0.0010</t>
+          <t>&lt;0</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>&lt;0.0010</t>
+          <t>&lt;0</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;0.0010</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v/>
-      </c>
-      <c r="H64" t="n">
-        <v/>
-      </c>
-      <c r="I64" t="n">
-        <v/>
-      </c>
-      <c r="J64" t="n">
-        <v/>
+          <t>&lt;0</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>&lt;0</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>&lt;0</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>&lt;0</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>&lt;0</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PEST_op-DDD</t>
+          <t>PEST_Lindane</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>o,p'-DDD</t>
+          <t>g-HCH (Lindan)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>&lt;0.0010</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>&lt;0.0010</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>&lt;0.0010</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>&lt;0.0010</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3564,12 +3572,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PEST_op-DDE</t>
+          <t>PEST_op-DDD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>o,p'-DDE</t>
+          <t>o,p'-DDD</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3608,12 +3616,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PEST_op-DDT</t>
+          <t>PEST_op-DDE</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>o,p'-DDT</t>
+          <t>o,p'-DDE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3652,12 +3660,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PEST_pp-DDD</t>
+          <t>PEST_op-DDT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>p,p'-DDD</t>
+          <t>o,p'-DDT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3696,12 +3704,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PEST_pp-DDE</t>
+          <t>PEST_pp-DDD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>p,p'-DDE</t>
+          <t>p,p'-DDD</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3740,12 +3748,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PEST_pp-DDT</t>
+          <t>PEST_pp-DDE</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>p,p'-DDT</t>
+          <t>p,p'-DDE</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3784,111 +3792,103 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Pb</t>
+          <t>PEST_pp-DDT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Bly</t>
+          <t>p,p'-DDT</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>&lt;0.010</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>&lt;0.010</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v/>
+      </c>
+      <c r="H71" t="n">
+        <v/>
+      </c>
+      <c r="I71" t="n">
+        <v/>
+      </c>
+      <c r="J71" t="n">
+        <v/>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Phenanthrene</t>
+          <t>Pb</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Fenantren</t>
+          <t>Bly</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>&lt;0.010</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Pyrene</t>
+          <t>Pyren</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3940,7 +3940,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>THC_C10-C12</t>
+          <t>THC C10-C12</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3992,7 +3992,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>THC_C12-C16</t>
+          <t>THC C12-C16</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4044,7 +4044,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>THC_C12-C35</t>
+          <t>THC C12-C35</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4096,7 +4096,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>THC_C16-C35</t>
+          <t>THC C16-C35</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4148,7 +4148,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>THC_C5-C6</t>
+          <t>THC C5-C6</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4200,7 +4200,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>THC_C6-C8</t>
+          <t>THC C6-C8</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4252,7 +4252,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>THC_C8-C10</t>
+          <t>THC C8-C10</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4304,7 +4304,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Toluene</t>
+          <t>Toluen</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4752,7 +4752,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Xylene</t>
+          <t>Xylen</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
